--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -15,8 +15,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>Аленький цветочек</t>
+  </si>
+  <si>
+    <t>Прайс лист на</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>Сапоги-скороходы</t>
+  </si>
+  <si>
+    <t>Скатерть-самобранка</t>
+  </si>
+  <si>
+    <t>Ковер-самолет</t>
+  </si>
+  <si>
+    <t>Вода мертвая</t>
+  </si>
+  <si>
+    <t>Вода живая</t>
+  </si>
+  <si>
+    <t>Зелье приворотное</t>
+  </si>
+  <si>
+    <t>Палочка волшебная</t>
+  </si>
+  <si>
+    <t>Наим. Товара</t>
+  </si>
+  <si>
+    <t>Цена ($)</t>
+  </si>
+  <si>
+    <t>Цена (руб)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -47,8 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -350,13 +408,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
+        <v>38704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <f>31.5</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <f>C5*$C3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f>C6*$C3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f>C7*$C3</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <f>C8*$C3</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <f>C9*$C3</f>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
+      <c r="D10">
+        <f>C10*$C3</f>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f>C11*$C3</f>
+        <v>6300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ООО</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Рублей</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Египет</t>
   </si>
 </sst>
 </file>
@@ -70,8 +100,17 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,13 +139,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +480,8 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>38704</v>
+        <f ca="1">TODAY()</f>
+        <v>44951</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,12 +623,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4">
+        <f>67.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C3">
+        <f>B3*B1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <f>B4*B1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C5">
+        <f>B5*B1</f>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>780</v>
+      </c>
+      <c r="C6">
+        <f>B6*B1</f>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <f>B7*B1</f>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -97,8 +97,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0_ ;[Red]\-[$$-409]#,##0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -153,6 +156,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,13 +465,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,10 +523,10 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <f>C5*$C3</f>
         <v>9450</v>
       </c>
@@ -529,10 +538,10 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <f>C6*$C3</f>
         <v>3150</v>
       </c>
@@ -544,10 +553,10 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <f>C7*$C3</f>
         <v>1575</v>
       </c>
@@ -559,10 +568,10 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>400</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <f>C8*$C3</f>
         <v>12600</v>
       </c>
@@ -574,10 +583,10 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1200</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <f>C9*$C3</f>
         <v>37800</v>
       </c>
@@ -589,10 +598,10 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>700</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <f>C10*$C3</f>
         <v>22050</v>
       </c>
@@ -604,10 +613,10 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>200</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <f>C11*$C3</f>
         <v>6300</v>
       </c>
@@ -626,7 +635,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,10 +672,10 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>1350</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <f>B3*B1</f>
         <v>91125</v>
       </c>
@@ -675,10 +684,10 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>450</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <f>B4*B1</f>
         <v>30375</v>
       </c>
@@ -687,10 +696,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>1180</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>B5*B1</f>
         <v>79650</v>
       </c>
@@ -699,10 +708,10 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>780</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f>B6*B1</f>
         <v>52650</v>
       </c>
@@ -711,10 +720,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>560</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <f>B7*B1</f>
         <v>37800</v>
       </c>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>ООО</t>
   </si>
@@ -91,17 +91,63 @@
   </si>
   <si>
     <t>Египет</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Магнитофон</t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Кофеварка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0_ ;[Red]\-[$$-409]#,##0\ "/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,17 +184,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,6 +219,12 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,10 +587,10 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>300</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>C5*$C3</f>
         <v>9450</v>
       </c>
@@ -538,10 +602,10 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>100</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>C6*$C3</f>
         <v>3150</v>
       </c>
@@ -553,10 +617,10 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>50</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <f>C7*$C3</f>
         <v>1575</v>
       </c>
@@ -568,10 +632,10 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>400</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>C8*$C3</f>
         <v>12600</v>
       </c>
@@ -583,10 +647,10 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1200</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f>C9*$C3</f>
         <v>37800</v>
       </c>
@@ -598,10 +662,10 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>700</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>C10*$C3</f>
         <v>22050</v>
       </c>
@@ -613,10 +677,10 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>200</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>C11*$C3</f>
         <v>6300</v>
       </c>
@@ -634,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -649,22 +713,22 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <f>67.5</f>
         <v>67.5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -672,10 +736,10 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>1350</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <f>B3*B1</f>
         <v>91125</v>
       </c>
@@ -684,10 +748,10 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>450</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <f>B4*B1</f>
         <v>30375</v>
       </c>
@@ -696,10 +760,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>1180</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>B5*B1</f>
         <v>79650</v>
       </c>
@@ -708,10 +772,10 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>780</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <f>B6*B1</f>
         <v>52650</v>
       </c>
@@ -720,10 +784,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>560</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <f>B7*B1</f>
         <v>37800</v>
       </c>
@@ -735,12 +799,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9">
+        <f>C2*33.7</f>
+        <v>2359</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12">
+        <v>900</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3*33.7</f>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>PRODUCT(D3,E3)</f>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12">
+        <v>60</v>
+      </c>
+      <c r="D4" s="9">
+        <f>C4*33.7</f>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>PRODUCT(D4,E4)</f>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12">
+        <v>150</v>
+      </c>
+      <c r="D5" s="9">
+        <f>C5*33.7</f>
+        <v>5055</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>PRODUCT(D5,E5)</f>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12">
+        <v>600</v>
+      </c>
+      <c r="D6" s="9">
+        <f>C6*33.7</f>
+        <v>20220</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>PRODUCT(D6,E6)</f>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12">
+        <v>300</v>
+      </c>
+      <c r="D7" s="9">
+        <f>C7*33.7</f>
+        <v>10110</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>PRODUCT(D7,E7)</f>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12">
+        <v>70</v>
+      </c>
+      <c r="D8" s="9">
+        <f>C8*33.7</f>
+        <v>2359</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f>PRODUCT(D8,E8)</f>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12">
+        <v>65</v>
+      </c>
+      <c r="D9" s="13">
+        <f>C9*33.7</f>
+        <v>2190.5</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f>PRODUCT(D9,E9)</f>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12">
+        <v>400</v>
+      </c>
+      <c r="D10" s="14">
+        <f>C10*33.7</f>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f>PRODUCT(D10,E10)</f>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14">
+        <f>C11*33.7</f>
+        <v>1348</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>PRODUCT(D11,E11)</f>
+        <v>16176</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -799,10 +799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,7 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <f>PRODUCT(D2,E2)</f>
         <v>23590</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <f>PRODUCT(D3,E3)</f>
         <v>121320.00000000001</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <f>PRODUCT(D4,E4)</f>
         <v>6066.0000000000009</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <f>PRODUCT(D5,E5)</f>
         <v>15165</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <f>PRODUCT(D6,E6)</f>
         <v>40440</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <f>PRODUCT(D7,E7)</f>
         <v>30330</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="E8">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f>PRODUCT(D8,E8)</f>
         <v>25949</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <f>PRODUCT(D9,E9)</f>
         <v>19714.5</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <f>PRODUCT(D10,E10)</f>
         <v>67400.000000000015</v>
       </c>
@@ -1045,9 +1045,19 @@
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f>PRODUCT(D11,E11)</f>
         <v>16176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>SUM(E2:E11)</f>
+        <v>62</v>
+      </c>
+      <c r="F13" s="9">
+        <f>SUM(F2:F11)</f>
+        <v>366150.5</v>
       </c>
     </row>
   </sheetData>
